--- a/1-data/1-1-dry-weights/2023-03-litter dry weights.xlsx
+++ b/1-data/1-1-dry-weights/2023-03-litter dry weights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb64wupi\Desktop\MyDiv II Litterfall\Statistics\1_Data\Raw_data\Litter dry weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb64wupi\Documents\MyDiv\MyDiv-litterfall-project\1-data\1-1-dry-weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17EFEC-1AF4-4D05-A0A9-84DA338D894E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE6168F-0552-4C93-A6AE-571780DD70CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,6 @@
     <t>9.A2</t>
   </si>
   <si>
-    <t>Other (g)</t>
-  </si>
-  <si>
     <t>2023-04-03</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>contaminants (g)</t>
   </si>
 </sst>
 </file>
@@ -1975,9 +1975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O233" sqref="O233"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2029,15 +2029,15 @@
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
@@ -2065,12 +2065,12 @@
         <v>0</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>14</v>
@@ -2098,12 +2098,12 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>14</v>
@@ -2131,12 +2131,12 @@
         <v>0</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>18</v>
@@ -2172,12 +2172,12 @@
         <v>0</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
@@ -2213,12 +2213,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>18</v>
@@ -2254,12 +2254,12 @@
         <v>0</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>19</v>
@@ -2285,12 +2285,12 @@
         <v>0</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -2316,12 +2316,12 @@
         <v>0</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
@@ -2347,12 +2347,12 @@
         <v>0</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>20</v>
@@ -2384,12 +2384,12 @@
         <v>0</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>20</v>
@@ -2421,12 +2421,12 @@
         <v>0</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>20</v>
@@ -2458,12 +2458,12 @@
         <v>0</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -2491,12 +2491,12 @@
         <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>21</v>
@@ -2524,12 +2524,12 @@
         <v>0</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>21</v>
@@ -2557,12 +2557,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>22</v>
@@ -2598,12 +2598,12 @@
         <v>0</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>22</v>
@@ -2639,12 +2639,12 @@
         <v>0</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>22</v>
@@ -2680,12 +2680,12 @@
         <v>0</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>23</v>
@@ -2713,12 +2713,12 @@
         <v>0</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>23</v>
@@ -2746,12 +2746,12 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>23</v>
@@ -2779,12 +2779,12 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>24</v>
@@ -2822,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>24</v>
@@ -2865,12 +2865,12 @@
         <v>0</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>24</v>
@@ -2908,12 +2908,12 @@
         <v>0</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>25</v>
@@ -2937,12 +2937,12 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>25</v>
@@ -2966,12 +2966,12 @@
         <v>0.223</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -2995,12 +2995,12 @@
         <v>0.755</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>26</v>
@@ -3026,12 +3026,12 @@
         <v>0</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>26</v>
@@ -3057,12 +3057,12 @@
         <v>0</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>26</v>
@@ -3088,12 +3088,12 @@
         <v>0.193</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -3117,12 +3117,12 @@
         <v>0.19</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>27</v>
@@ -3146,12 +3146,12 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>27</v>
@@ -3175,12 +3175,12 @@
         <v>0.15</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>28</v>
@@ -3204,12 +3204,12 @@
         <v>0</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>28</v>
@@ -3233,12 +3233,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>28</v>
@@ -3262,12 +3262,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>29</v>
@@ -3291,12 +3291,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>29</v>
@@ -3320,12 +3320,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>29</v>
@@ -3349,12 +3349,12 @@
         <v>0</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>30</v>
@@ -3384,12 +3384,12 @@
         <v>0</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>30</v>
@@ -3419,12 +3419,12 @@
         <v>0</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -3454,12 +3454,12 @@
         <v>0</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>31</v>
@@ -3483,12 +3483,12 @@
         <v>0</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>31</v>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>31</v>
@@ -3541,12 +3541,12 @@
         <v>0</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>32</v>
@@ -3572,12 +3572,12 @@
         <v>0.69</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>32</v>
@@ -3603,12 +3603,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>32</v>
@@ -3634,12 +3634,12 @@
         <v>0.43</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>33</v>
@@ -3669,12 +3669,12 @@
         <v>0</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>33</v>
@@ -3704,12 +3704,12 @@
         <v>0</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>33</v>
@@ -3739,12 +3739,12 @@
         <v>0</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>34</v>
@@ -3770,12 +3770,12 @@
         <v>0</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>34</v>
@@ -3801,12 +3801,12 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>34</v>
@@ -3832,12 +3832,12 @@
         <v>0</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>35</v>
@@ -3867,12 +3867,12 @@
         <v>0</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>35</v>
@@ -3902,12 +3902,12 @@
         <v>0</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>35</v>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>36</v>
@@ -3966,12 +3966,12 @@
         <v>0</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>36</v>
@@ -3995,12 +3995,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>36</v>
@@ -4024,12 +4024,12 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>37</v>
@@ -4059,12 +4059,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>37</v>
@@ -4094,12 +4094,12 @@
         <v>0</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>37</v>
@@ -4129,12 +4129,12 @@
         <v>0</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>38</v>
@@ -4160,12 +4160,12 @@
         <v>0</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>38</v>
@@ -4191,12 +4191,12 @@
         <v>0.59</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>38</v>
@@ -4222,12 +4222,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>39</v>
@@ -4253,12 +4253,12 @@
         <v>0</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>39</v>
@@ -4284,12 +4284,12 @@
         <v>0</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>39</v>
@@ -4319,12 +4319,12 @@
         <v>0</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>40</v>
@@ -4354,12 +4354,12 @@
         <v>0</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>40</v>
@@ -4389,12 +4389,12 @@
         <v>0</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>40</v>
@@ -4424,12 +4424,12 @@
         <v>0</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>41</v>
@@ -4453,12 +4453,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>41</v>
@@ -4482,12 +4482,12 @@
         <v>0.08</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>41</v>
@@ -4511,12 +4511,12 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>42</v>
@@ -4546,12 +4546,12 @@
         <v>0</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>42</v>
@@ -4581,12 +4581,12 @@
         <v>0</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>42</v>
@@ -4616,12 +4616,12 @@
         <v>0</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>43</v>
@@ -4645,12 +4645,12 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>43</v>
@@ -4674,12 +4674,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>43</v>
@@ -4703,12 +4703,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>44</v>
@@ -4738,12 +4738,12 @@
         <v>0</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>44</v>
@@ -4773,12 +4773,12 @@
         <v>0</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>44</v>
@@ -4808,12 +4808,12 @@
         <v>0</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>45</v>
@@ -4839,12 +4839,12 @@
         <v>0</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>45</v>
@@ -4870,12 +4870,12 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>45</v>
@@ -4902,12 +4902,12 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>46</v>
@@ -4937,12 +4937,12 @@
         <v>0</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>46</v>
@@ -4972,12 +4972,12 @@
         <v>0</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>46</v>
@@ -5007,12 +5007,12 @@
         <v>0</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>47</v>
@@ -5038,12 +5038,12 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>47</v>
@@ -5069,12 +5069,12 @@
         <v>0</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>47</v>
@@ -5100,12 +5100,12 @@
         <v>0</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>48</v>
@@ -5131,12 +5131,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>48</v>
@@ -5162,12 +5162,12 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>48</v>
@@ -5193,12 +5193,12 @@
         <v>0.32</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>49</v>
@@ -5224,12 +5224,12 @@
         <v>0</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>49</v>
@@ -5255,12 +5255,12 @@
         <v>0</v>
       </c>
       <c r="O99" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>49</v>
@@ -5286,12 +5286,12 @@
         <v>0</v>
       </c>
       <c r="O100" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>50</v>
@@ -5315,12 +5315,12 @@
         <v>0</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>50</v>
@@ -5344,12 +5344,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>50</v>
@@ -5373,12 +5373,12 @@
         <v>0</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>51</v>
@@ -5408,12 +5408,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>51</v>
@@ -5443,12 +5443,12 @@
         <v>0.113</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>51</v>
@@ -5478,12 +5478,12 @@
         <v>0</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>52</v>
@@ -5509,12 +5509,12 @@
         <v>0</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>52</v>
@@ -5540,12 +5540,12 @@
         <v>0</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>52</v>
@@ -5571,12 +5571,12 @@
         <v>0</v>
       </c>
       <c r="O109" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>53</v>
@@ -5606,12 +5606,12 @@
         <v>0</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>53</v>
@@ -5641,12 +5641,12 @@
         <v>0</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>53</v>
@@ -5676,12 +5676,12 @@
         <v>0</v>
       </c>
       <c r="O112" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>54</v>
@@ -5707,12 +5707,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>54</v>
@@ -5738,12 +5738,12 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>54</v>
@@ -5769,12 +5769,12 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>55</v>
@@ -5804,12 +5804,12 @@
         <v>0</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>55</v>
@@ -5839,12 +5839,12 @@
         <v>0</v>
       </c>
       <c r="O117" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>55</v>
@@ -5874,12 +5874,12 @@
         <v>0</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>56</v>
@@ -5909,12 +5909,12 @@
         <v>0</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>56</v>
@@ -5944,12 +5944,12 @@
         <v>0</v>
       </c>
       <c r="O120" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>56</v>
@@ -5979,12 +5979,12 @@
         <v>0</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>57</v>
@@ -6008,12 +6008,12 @@
         <v>0</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>57</v>
@@ -6037,12 +6037,12 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="O123" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>57</v>
@@ -6066,12 +6066,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O124" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>58</v>
@@ -6095,12 +6095,12 @@
         <v>0</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>58</v>
@@ -6124,12 +6124,12 @@
         <v>0.2</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>58</v>
@@ -6153,12 +6153,12 @@
         <v>0</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>59</v>
@@ -6188,12 +6188,12 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>59</v>
@@ -6223,12 +6223,12 @@
         <v>0.5</v>
       </c>
       <c r="O129" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>59</v>
@@ -6258,12 +6258,12 @@
         <v>1.71</v>
       </c>
       <c r="O130" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>60</v>
@@ -6293,12 +6293,12 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>60</v>
@@ -6328,12 +6328,12 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="O132" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>60</v>
@@ -6363,12 +6363,12 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>61</v>
@@ -6394,12 +6394,12 @@
         <v>0</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>61</v>
@@ -6425,12 +6425,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="O135" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>61</v>
@@ -6456,12 +6456,12 @@
         <v>0</v>
       </c>
       <c r="O136" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>62</v>
@@ -6485,12 +6485,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>62</v>
@@ -6514,12 +6514,12 @@
         <v>4.7E-2</v>
       </c>
       <c r="O138" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>62</v>
@@ -6543,12 +6543,12 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="O139" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>63</v>
@@ -6574,12 +6574,12 @@
         <v>0</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>63</v>
@@ -6605,12 +6605,12 @@
         <v>0</v>
       </c>
       <c r="O141" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>63</v>
@@ -6636,12 +6636,12 @@
         <v>0</v>
       </c>
       <c r="O142" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>64</v>
@@ -6667,12 +6667,12 @@
         <v>0.92</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>64</v>
@@ -6698,12 +6698,12 @@
         <v>1.64</v>
       </c>
       <c r="O144" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>64</v>
@@ -6729,12 +6729,12 @@
         <v>3.09</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>65</v>
@@ -6764,12 +6764,12 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>65</v>
@@ -6799,12 +6799,12 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="O147" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>65</v>
@@ -6834,12 +6834,12 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>66</v>
@@ -6865,12 +6865,12 @@
         <v>0</v>
       </c>
       <c r="O149" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>66</v>
@@ -6896,12 +6896,12 @@
         <v>0</v>
       </c>
       <c r="O150" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>66</v>
@@ -6927,12 +6927,12 @@
         <v>0.193</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>67</v>
@@ -6962,12 +6962,12 @@
         <v>0.376</v>
       </c>
       <c r="O152" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>67</v>
@@ -6997,12 +6997,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O153" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>67</v>
@@ -7032,12 +7032,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>68</v>
@@ -7061,12 +7061,12 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="O155" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>68</v>
@@ -7090,12 +7090,12 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="O156" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>68</v>
@@ -7119,12 +7119,12 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>69</v>
@@ -7150,12 +7150,12 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="O158" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>69</v>
@@ -7181,12 +7181,12 @@
         <v>0</v>
       </c>
       <c r="O159" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>69</v>
@@ -7212,12 +7212,12 @@
         <v>5.5E-2</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>70</v>
@@ -7247,12 +7247,12 @@
         <v>0</v>
       </c>
       <c r="O161" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>70</v>
@@ -7282,12 +7282,12 @@
         <v>0</v>
       </c>
       <c r="O162" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>70</v>
@@ -7317,12 +7317,12 @@
         <v>0</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>71</v>
@@ -7352,12 +7352,12 @@
         <v>0</v>
       </c>
       <c r="O164" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>71</v>
@@ -7387,12 +7387,12 @@
         <v>0</v>
       </c>
       <c r="O165" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>71</v>
@@ -7422,12 +7422,12 @@
         <v>0</v>
       </c>
       <c r="O166" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>72</v>
@@ -7457,12 +7457,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O167" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>72</v>
@@ -7492,12 +7492,12 @@
         <v>0</v>
       </c>
       <c r="O168" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>72</v>
@@ -7527,12 +7527,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="O169" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>73</v>
@@ -7562,12 +7562,12 @@
         <v>0</v>
       </c>
       <c r="O170" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>73</v>
@@ -7597,12 +7597,12 @@
         <v>0</v>
       </c>
       <c r="O171" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>73</v>
@@ -7632,12 +7632,12 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="O172" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B173" s="17" t="s">
         <v>74</v>
@@ -7661,12 +7661,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O173" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>74</v>
@@ -7690,12 +7690,12 @@
         <v>0.06</v>
       </c>
       <c r="O174" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>74</v>
@@ -7719,12 +7719,12 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="O175" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B176" s="17" t="s">
         <v>75</v>
@@ -7750,12 +7750,12 @@
         <v>9.4E-2</v>
       </c>
       <c r="O176" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>75</v>
@@ -7781,12 +7781,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O177" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>75</v>
@@ -7812,12 +7812,12 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O178" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>76</v>
@@ -7843,12 +7843,12 @@
         <v>0</v>
       </c>
       <c r="O179" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>76</v>
@@ -7874,12 +7874,12 @@
         <v>0</v>
       </c>
       <c r="O180" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>76</v>
@@ -7905,12 +7905,12 @@
         <v>0</v>
       </c>
       <c r="O181" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>77</v>
@@ -7936,12 +7936,12 @@
         <v>0</v>
       </c>
       <c r="O182" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>77</v>
@@ -7967,12 +7967,12 @@
         <v>0</v>
       </c>
       <c r="O183" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>77</v>
@@ -7998,12 +7998,12 @@
         <v>1.9E-2</v>
       </c>
       <c r="O184" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>78</v>
@@ -8029,12 +8029,12 @@
         <v>0</v>
       </c>
       <c r="O185" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>78</v>
@@ -8060,12 +8060,12 @@
         <v>0</v>
       </c>
       <c r="O186" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>78</v>
@@ -8091,12 +8091,12 @@
         <v>0</v>
       </c>
       <c r="O187" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>79</v>
@@ -8126,12 +8126,12 @@
         <v>0</v>
       </c>
       <c r="O188" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>79</v>
@@ -8161,12 +8161,12 @@
         <v>0</v>
       </c>
       <c r="O189" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>79</v>
@@ -8196,12 +8196,12 @@
         <v>0</v>
       </c>
       <c r="O190" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>80</v>
@@ -8227,12 +8227,12 @@
         <v>0</v>
       </c>
       <c r="O191" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>80</v>
@@ -8258,12 +8258,12 @@
         <v>0</v>
       </c>
       <c r="O192" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>80</v>
@@ -8289,12 +8289,12 @@
         <v>0</v>
       </c>
       <c r="O193" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>81</v>
@@ -8318,12 +8318,12 @@
         <v>0</v>
       </c>
       <c r="O194" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>81</v>
@@ -8347,12 +8347,12 @@
         <v>0</v>
       </c>
       <c r="O195" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>81</v>
@@ -8376,12 +8376,12 @@
         <v>0</v>
       </c>
       <c r="O196" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>82</v>
@@ -8407,12 +8407,12 @@
         <v>0</v>
       </c>
       <c r="O197" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>82</v>
@@ -8438,12 +8438,12 @@
         <v>0</v>
       </c>
       <c r="O198" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>82</v>
@@ -8469,12 +8469,12 @@
         <v>0</v>
       </c>
       <c r="O199" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>83</v>
@@ -8506,12 +8506,12 @@
         <v>0</v>
       </c>
       <c r="O200" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>83</v>
@@ -8543,12 +8543,12 @@
         <v>0</v>
       </c>
       <c r="O201" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>83</v>
@@ -8582,12 +8582,12 @@
         <v>0</v>
       </c>
       <c r="O202" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>84</v>
@@ -8611,12 +8611,12 @@
         <v>0</v>
       </c>
       <c r="O203" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>84</v>
@@ -8640,12 +8640,12 @@
         <v>0</v>
       </c>
       <c r="O204" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>84</v>
@@ -8669,12 +8669,12 @@
         <v>0</v>
       </c>
       <c r="O205" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>85</v>
@@ -8704,12 +8704,12 @@
         <v>0</v>
       </c>
       <c r="O206" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>85</v>
@@ -8739,12 +8739,12 @@
         <v>0</v>
       </c>
       <c r="O207" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>85</v>
@@ -8774,12 +8774,12 @@
         <v>0</v>
       </c>
       <c r="O208" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>86</v>
@@ -8803,12 +8803,12 @@
         <v>0</v>
       </c>
       <c r="O209" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>86</v>
@@ -8832,12 +8832,12 @@
         <v>0.11</v>
       </c>
       <c r="O210" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>86</v>
@@ -8861,12 +8861,12 @@
         <v>0.73</v>
       </c>
       <c r="O211" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>87</v>
@@ -8892,12 +8892,12 @@
         <v>0</v>
       </c>
       <c r="O212" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>87</v>
@@ -8923,12 +8923,12 @@
         <v>0</v>
       </c>
       <c r="O213" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>87</v>
@@ -8954,12 +8954,12 @@
         <v>0</v>
       </c>
       <c r="O214" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>88</v>
@@ -8989,12 +8989,12 @@
         <v>0</v>
       </c>
       <c r="O215" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B216" s="11" t="s">
         <v>88</v>
@@ -9024,12 +9024,12 @@
         <v>0</v>
       </c>
       <c r="O216" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>88</v>
@@ -9059,12 +9059,12 @@
         <v>0</v>
       </c>
       <c r="O217" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>89</v>
@@ -9094,12 +9094,12 @@
         <v>0</v>
       </c>
       <c r="O218" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B219" s="11" t="s">
         <v>89</v>
@@ -9129,12 +9129,12 @@
         <v>0</v>
       </c>
       <c r="O219" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>89</v>
@@ -9164,12 +9164,12 @@
         <v>0</v>
       </c>
       <c r="O220" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>90</v>
@@ -9193,12 +9193,12 @@
         <v>4.7E-2</v>
       </c>
       <c r="O221" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B222" s="11" t="s">
         <v>90</v>
@@ -9222,12 +9222,12 @@
         <v>0</v>
       </c>
       <c r="O222" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B223" s="14" t="s">
         <v>90</v>
@@ -9251,12 +9251,12 @@
         <v>0</v>
       </c>
       <c r="O223" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>91</v>
@@ -9280,12 +9280,12 @@
         <v>0</v>
       </c>
       <c r="O224" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>91</v>
@@ -9309,12 +9309,12 @@
         <v>0</v>
       </c>
       <c r="O225" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>91</v>
@@ -9338,12 +9338,12 @@
         <v>0</v>
       </c>
       <c r="O226" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>92</v>
@@ -9369,12 +9369,12 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="O227" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>92</v>
@@ -9400,12 +9400,12 @@
         <v>0</v>
       </c>
       <c r="O228" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>92</v>
@@ -9431,12 +9431,12 @@
         <v>0</v>
       </c>
       <c r="O229" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>93</v>
@@ -9466,12 +9466,12 @@
         <v>0</v>
       </c>
       <c r="O230" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>93</v>
@@ -9501,12 +9501,12 @@
         <v>0</v>
       </c>
       <c r="O231" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>93</v>
@@ -9536,12 +9536,12 @@
         <v>0</v>
       </c>
       <c r="O232" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>94</v>
@@ -9565,12 +9565,12 @@
         <v>0.11</v>
       </c>
       <c r="O233" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>94</v>
@@ -9594,12 +9594,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="O234" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B235" s="14" t="s">
         <v>94</v>
@@ -9623,12 +9623,12 @@
         <v>0.126</v>
       </c>
       <c r="O235" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>95</v>
@@ -9654,12 +9654,12 @@
         <v>0</v>
       </c>
       <c r="O236" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>95</v>
@@ -9685,12 +9685,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O237" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>95</v>
@@ -9716,12 +9716,12 @@
         <v>0</v>
       </c>
       <c r="O238" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>96</v>
@@ -9749,12 +9749,12 @@
         <v>0</v>
       </c>
       <c r="O239" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>96</v>
@@ -9782,12 +9782,12 @@
         <v>0</v>
       </c>
       <c r="O240" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>96</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="O241" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
